--- a/activity.xlsx
+++ b/activity.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShopMallLocalRep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Ручки КПП" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>что</t>
   </si>
@@ -74,13 +79,64 @@
   </si>
   <si>
     <t>получено</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (сереб-черн-кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач SPACO (сереб - черн - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (сереб-черн)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (черн-бел)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (черн-бел-кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (черн-кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп momo (кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач MOMO (кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач mugen (кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач SPACO (черн - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач MUGEN (кр), в комплекте переходные шайбы под разный диаметр штока.</t>
+  </si>
+  <si>
+    <t>Накладки на педали Ford (Focus, Mondeo) (АКПП)</t>
+  </si>
+  <si>
+    <t>Накладки на педали Ford (Focus, Mondeo) (МКПП)</t>
+  </si>
+  <si>
+    <t>Накладки на педали  Ford (Focus, Mondeo) (АКПП). Крепление -винты.</t>
+  </si>
+  <si>
+    <t>Накладки на педали Ford (Focus, Mondeo) (МКПП). Крепление -винты.</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Skoda Octavia A5</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Skoda Octavia A5. Крепление - пром. скотч 3М.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +147,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -124,21 +173,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -426,14 +482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -442,7 +498,7 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -494,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -514,6 +570,50 @@
       <c r="F3">
         <f>D3-C3</f>
         <v>1477.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2200</v>
+      </c>
+      <c r="E4">
+        <f>(D4-C4)/C4*100</f>
+        <v>219900</v>
+      </c>
+      <c r="F4">
+        <f>D4-C4</f>
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2200</v>
+      </c>
+      <c r="E5">
+        <f>(D5-C5)/C5*100</f>
+        <v>219900</v>
+      </c>
+      <c r="F5">
+        <f>D5-C5</f>
+        <v>2199</v>
       </c>
     </row>
   </sheetData>
@@ -523,20 +623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -610,8 +710,27 @@
         <v>1587.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1100</v>
+      </c>
+      <c r="E4">
+        <f>(D4-C4)/C4*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F4">
+        <f>D4-C4</f>
+        <v>1099</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,28 +738,248 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1100</v>
+      </c>
+      <c r="E2">
+        <f>(D2-C2)/C2*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F2">
+        <f>D2-C2</f>
+        <v>1099</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1100</v>
+      </c>
+      <c r="E3">
+        <f>(D3-C3)/C3*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F3">
+        <f>D3-C3</f>
+        <v>1099</v>
+      </c>
+      <c r="H3">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1100</v>
+      </c>
+      <c r="E4">
+        <f>(D4-C4)/C4*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F4">
+        <f>D4-C4</f>
+        <v>1099</v>
+      </c>
+      <c r="H4">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1100</v>
+      </c>
+      <c r="E5">
+        <f>(D5-C5)/C5*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F5">
+        <f>D5-C5</f>
+        <v>1099</v>
+      </c>
+      <c r="H5">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1100</v>
+      </c>
+      <c r="E6">
+        <f>(D6-C6)/C6*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F6">
+        <f>D6-C6</f>
+        <v>1099</v>
+      </c>
+      <c r="H6">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1100</v>
+      </c>
+      <c r="E7">
+        <f>(D7-C7)/C7*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F7">
+        <f>D7-C7</f>
+        <v>1099</v>
+      </c>
+      <c r="H7">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1100</v>
+      </c>
+      <c r="E8">
+        <f>(D8-C8)/C8*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F8">
+        <f>D8-C8</f>
+        <v>1099</v>
+      </c>
+      <c r="H8">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShopMallLocalRep\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Ручки КПП" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>что</t>
   </si>
@@ -84,59 +79,50 @@
     <t>Ручка переключения передач spaco (сереб-черн-кр)</t>
   </si>
   <si>
-    <t>Ручка переключения передач SPACO (сереб - черн - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач spaco (сереб-черн)</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач spaco (черн-бел)</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач spaco (черн-бел-кр)</t>
+    <t>Ручка переключения кпп SPACO (сереб - черн - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (сереб - черн)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (черн - бел)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач spaco (черн - бел - кр)</t>
   </si>
   <si>
     <t>Ручка переключения передач spaco (черн-кр)</t>
   </si>
   <si>
+    <t>Ручка переключения передач mugen (кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп MUGEN (кр), в комплекте переходные шайбы под разный диаметр штока.</t>
+  </si>
+  <si>
     <t>Ручка переключения кпп momo (кр)</t>
   </si>
   <si>
-    <t>Ручка переключения передач MOMO (кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач mugen (кр)</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач SPACO (черн - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач MUGEN (кр), в комплекте переходные шайбы под разный диаметр штока.</t>
-  </si>
-  <si>
-    <t>Накладки на педали Ford (Focus, Mondeo) (АКПП)</t>
-  </si>
-  <si>
-    <t>Накладки на педали Ford (Focus, Mondeo) (МКПП)</t>
-  </si>
-  <si>
-    <t>Накладки на педали  Ford (Focus, Mondeo) (АКПП). Крепление -винты.</t>
-  </si>
-  <si>
-    <t>Накладки на педали Ford (Focus, Mondeo) (МКПП). Крепление -винты.</t>
-  </si>
-  <si>
-    <t>Накладки на пороги Skoda Octavia A5</t>
-  </si>
-  <si>
-    <t>Накладки на пороги Skoda Octavia A5. Крепление - пром. скотч 3М.</t>
+    <t>Ручка переключения кпп MOMO (кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп spaco (сереб - черн), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп spaco (черн - бел), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп spaco (черн - бел - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп spaco (черн-кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +133,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -173,26 +166,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -239,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,10 +259,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -482,14 +468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -498,7 +484,7 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -550,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -570,50 +556,6 @@
       <c r="F3">
         <f>D3-C3</f>
         <v>1477.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2200</v>
-      </c>
-      <c r="E4">
-        <f>(D4-C4)/C4*100</f>
-        <v>219900</v>
-      </c>
-      <c r="F4">
-        <f>D4-C4</f>
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2200</v>
-      </c>
-      <c r="E5">
-        <f>(D5-C5)/C5*100</f>
-        <v>219900</v>
-      </c>
-      <c r="F5">
-        <f>D5-C5</f>
-        <v>2199</v>
       </c>
     </row>
   </sheetData>
@@ -623,20 +565,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -688,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -710,27 +652,8 @@
         <v>1587.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1100</v>
-      </c>
-      <c r="E4">
-        <f>(D4-C4)/C4*100</f>
-        <v>109900</v>
-      </c>
-      <c r="F4">
-        <f>D4-C4</f>
-        <v>1099</v>
-      </c>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,24 +661,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -807,12 +726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -833,12 +752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -859,12 +778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -885,12 +804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -911,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -937,26 +856,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E8">
         <f>(D8-C8)/C8*100</f>
-        <v>109900</v>
+        <v>129900</v>
       </c>
       <c r="F8">
         <f>D8-C8</f>
-        <v>1099</v>
+        <v>1299</v>
       </c>
       <c r="H8">
         <f>SUM(G:G)</f>
@@ -965,21 +884,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>16</v>
       </c>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShopMallLocalRep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Ручки КПП" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>что</t>
   </si>
@@ -46,15 +51,9 @@
     <t>Накладки на пороги Pegeout 308 408</t>
   </si>
   <si>
-    <t>Накладки на пороги Pegeout 308 408 (2008-2015). Крепление - пром. скотч 3М.</t>
-  </si>
-  <si>
     <t>Накладки на пороги Audi A3 A4 A5 A6 A7 A8 Q5 Q7</t>
   </si>
   <si>
-    <t>Накладки на пороги Audi A3 A4 A5 A6 A7 A8 Q5 Q7. Крепление - пром. скотч 3М.</t>
-  </si>
-  <si>
     <t>Накладки на педали AUDI A3 S3 (МКПП)</t>
   </si>
   <si>
@@ -116,13 +115,139 @@
   </si>
   <si>
     <t>Ручка переключения кпп spaco (черн-кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Накладки на педали Ford Focus, Мondeo (мкпп)</t>
+  </si>
+  <si>
+    <t>Накладки на педали Ford Focus, Мondeo (мкпп). Крепление - винты.</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Заказано</t>
+  </si>
+  <si>
+    <t>Накладки на педали Ford Focus, Мondeo (акпп)</t>
+  </si>
+  <si>
+    <t>Накладки на педали Ford Focus, Мondeo (акпп). Крепление - винты.</t>
+  </si>
+  <si>
+    <t>Накладки на педали Mazda CX5(АКПП)</t>
+  </si>
+  <si>
+    <t>Накладки на педали Mazda CX5(АКПП). Крепление - винты.</t>
+  </si>
+  <si>
+    <t>Накладки на педали Mazda CX5(МКПП)</t>
+  </si>
+  <si>
+    <t>Накладки на педали Mazda CX5(МКПП). Крепление - винты.</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>цену продажи уточнить</t>
+  </si>
+  <si>
+    <t>Накладки на педали Chevrolet Cruze(АКПП)</t>
+  </si>
+  <si>
+    <t>Накладки на педали Chevrolet Cruze(АКПП). Крепление - оригинал.</t>
+  </si>
+  <si>
+    <t>уточнить тип крепления</t>
+  </si>
+  <si>
+    <t>Накладки на педали BMW E30 E36 E46 E87 E90 E91 E92 E93(МКПП)</t>
+  </si>
+  <si>
+    <t>Накладки на педали BMW E30 E36 E46 E87 E90 E91 E92 E93(МКПП). Крепление - винты.</t>
+  </si>
+  <si>
+    <t>цену продажи уточнить; уточнить тип крепления</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Skoda Octavia А5</t>
+  </si>
+  <si>
+    <t>Накладки на пороги VW Jetta MK5, MK6.</t>
+  </si>
+  <si>
+    <t>Накладки на пороги VW Jetta MK5, MK6. Нержавеющая сталь - отличное качество исполнения. Крепление - пром. скотч 3М.</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Skoda Octavia А5.Нержавеющая сталь - отличное качество исполнения. Крепление - пром. скотч 3М.</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Audi A3 A4 A5 A6 A7 A8 Q5 Q7. Нержавеющая сталь - отличное качество исполнения. Крепление - пром. скотч 3М.</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Pegeout 308 408 (2008-2015). Нержавеющая сталь - отличное качество исполнения. Крепление - пром. скотч 3М.</t>
+  </si>
+  <si>
+    <t>уточнить цену продажи</t>
+  </si>
+  <si>
+    <t>Накладки на педали Октавия А5, Гольф, Джетта, Aуди</t>
+  </si>
+  <si>
+    <t>Подходят к Skoda Octavia А5, Superb, Yeti; VW Scirocco; 
+VW Golf, Jetta: 5-6; Audi А3, ТТ, Q3. 
+Прорезиненные накладки из нержавейки оригинального дизайна. Крепление - оригинал.</t>
+  </si>
+  <si>
+    <t>Накладки на педали Октавия А7, Гольф 7</t>
+  </si>
+  <si>
+    <t>Подходят к Skoda Octavia А7; 
+VW Golf 7. Прорезиненные накладки из нержавейки оригинального дизайна. Крепление - оригинал.</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Hyndai Solaris.</t>
+  </si>
+  <si>
+    <t>Накладки на пороги Hyndai Solaris. Нержавеющая сталь - отличное качество исполнения. Крепление - пром. скотч 3М.</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>MAZDA</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>VW 5-6</t>
+  </si>
+  <si>
+    <t>VW7</t>
+  </si>
+  <si>
+    <t>HYNDAI</t>
+  </si>
+  <si>
+    <t>PEGEOUT</t>
+  </si>
+  <si>
+    <t>Skoda/VW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +264,47 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -166,14 +330,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,6 +386,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +472,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +507,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -468,94 +683,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="1" t="s">
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1794.16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F2" s="5">
+        <f>(E2-D2)/D2*100</f>
+        <v>83.93008427342042</v>
+      </c>
+      <c r="G2" s="5">
+        <f>E2-D2</f>
+        <v>1505.84</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <f>SUM(H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1794.16</v>
-      </c>
-      <c r="D2">
-        <v>3100</v>
-      </c>
-      <c r="E2">
-        <f>(D2-C2)/C2*100</f>
-        <v>72.782806438667663</v>
-      </c>
-      <c r="F2">
-        <f>D2-C2</f>
-        <v>1305.8399999999999</v>
-      </c>
-      <c r="H2">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="D3" s="4">
         <v>1622.31</v>
       </c>
-      <c r="D3">
-        <v>3100</v>
-      </c>
-      <c r="E3">
-        <f>(D3-C3)/C3*100</f>
-        <v>91.085550850330705</v>
-      </c>
-      <c r="F3">
-        <f>D3-C3</f>
-        <v>1477.69</v>
+      <c r="E3" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F3" s="5">
+        <f>(E3-D3)/D3*100</f>
+        <v>103.41365090519075</v>
+      </c>
+      <c r="G3" s="5">
+        <f>E3-D3</f>
+        <v>1677.69</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F4" s="5">
+        <f>(E4-D4)/D4*100</f>
+        <v>219900</v>
+      </c>
+      <c r="G4" s="5">
+        <f>E4-D4</f>
+        <v>2199</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="5">
+        <f>(E5-D5)/D5*100</f>
+        <v>219900</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5-D5</f>
+        <v>2199</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2200</v>
+      </c>
+      <c r="F6" s="7">
+        <f>(E6-D6)/D6*100</f>
+        <v>219900</v>
+      </c>
+      <c r="G6" s="7">
+        <f>E6-D6</f>
+        <v>2199</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2200</v>
+      </c>
+      <c r="F7" s="12">
+        <f>(E7-D7)/D7*100</f>
+        <v>219900</v>
+      </c>
+      <c r="G7" s="12">
+        <f>E7-D7</f>
+        <v>2199</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6">
+        <v>576.41999999999996</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <f>(E8-D8)/D8*100</f>
+        <v>-99.826515388085085</v>
+      </c>
+      <c r="G8" s="7">
+        <f>E8-D8</f>
+        <v>-575.41999999999996</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="7">
+        <f>(E9-D9)/D9*100</f>
+        <v>219900</v>
+      </c>
+      <c r="G9" s="7">
+        <f>E9-D9</f>
+        <v>2199</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1067.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2200</v>
+      </c>
+      <c r="F10" s="7">
+        <f>(E10-D10)/D10*100</f>
+        <v>106.08899297423888</v>
+      </c>
+      <c r="G10" s="7">
+        <f>E10-D10</f>
+        <v>1132.5</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1756.85</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(E11-D11)/D11*100</f>
+        <v>-99.943079944218354</v>
+      </c>
+      <c r="G11" s="7">
+        <f>E11-D11</f>
+        <v>-1755.85</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -565,95 +1067,251 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="1" t="s">
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4">
+        <v>860.67</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1700</v>
+      </c>
+      <c r="F2" s="5">
+        <f>(E2-D2)/D2*100</f>
+        <v>97.52053632635041</v>
+      </c>
+      <c r="G2" s="5">
+        <f>E2-D2</f>
+        <v>839.33</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <f>SUM(H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>860.67</v>
-      </c>
-      <c r="D2">
-        <v>1700</v>
-      </c>
-      <c r="E2">
-        <f>(D2-C2)/C2*100</f>
-        <v>97.52053632635041</v>
-      </c>
-      <c r="F2">
-        <f>D2-C2</f>
-        <v>839.33</v>
-      </c>
-      <c r="H2">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4">
         <v>2512.37</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="5">
         <v>4100</v>
       </c>
-      <c r="E3">
-        <f>(D3-C3)/C3*100</f>
+      <c r="F3" s="5">
+        <f>(E3-D3)/D3*100</f>
         <v>63.192523394245285</v>
       </c>
-      <c r="F3">
-        <f>D3-C3</f>
+      <c r="G3" s="5">
+        <f>E3-D3</f>
         <v>1587.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1100</v>
+      </c>
+      <c r="F4" s="17">
+        <f>(E4-D4)/D4*100</f>
+        <v>109900</v>
+      </c>
+      <c r="G4" s="17">
+        <f>E4-D4</f>
+        <v>1099</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6">
+        <v>897.27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <f>(E5-D5)/D5*100</f>
+        <v>-99.888550826395615</v>
+      </c>
+      <c r="G5" s="7">
+        <f>E5-D5</f>
+        <v>-896.27</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1614.89</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <f>(E6-D6)/D6*100</f>
+        <v>-99.938076277641201</v>
+      </c>
+      <c r="G6" s="7">
+        <f>E6-D6</f>
+        <v>-1613.89</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -661,20 +1319,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,186 +1357,244 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E8" si="0">(D2-C2)/C2*100</f>
+        <v>109900</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F8" si="1">D2-C2</f>
+        <v>1099</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H8" si="2">SUM(G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>109900</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="1"/>
+        <v>1099</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>1100</v>
       </c>
-      <c r="E2">
-        <f>(D2-C2)/C2*100</f>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F2">
-        <f>D2-C2</f>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="H2">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>1100</v>
       </c>
-      <c r="E3">
-        <f>(D3-C3)/C3*100</f>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F3">
-        <f>D3-C3</f>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="H3">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="1" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>1100</v>
       </c>
-      <c r="E4">
-        <f>(D4-C4)/C4*100</f>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F4">
-        <f>D4-C4</f>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="H4">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="1" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>1100</v>
       </c>
-      <c r="E5">
-        <f>(D5-C5)/C5*100</f>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F5">
-        <f>D5-C5</f>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="H5">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1100</v>
-      </c>
-      <c r="E6">
-        <f>(D6-C6)/C6*100</f>
-        <v>109900</v>
-      </c>
-      <c r="F6">
-        <f>D6-C6</f>
-        <v>1099</v>
-      </c>
-      <c r="H6">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="1" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1100</v>
-      </c>
-      <c r="E7">
-        <f>(D7-C7)/C7*100</f>
-        <v>109900</v>
-      </c>
-      <c r="F7">
-        <f>D7-C7</f>
-        <v>1099</v>
-      </c>
-      <c r="H7">
-        <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>1300</v>
       </c>
-      <c r="E8">
-        <f>(D8-C8)/C8*100</f>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>129900</v>
       </c>
-      <c r="F8">
-        <f>D8-C8</f>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
         <v>1299</v>
       </c>
-      <c r="H8">
-        <f>SUM(G:G)</f>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -889,27 +1605,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -75,24 +75,6 @@
     <t>получено</t>
   </si>
   <si>
-    <t>Ручка переключения передач spaco (сереб-черн-кр)</t>
-  </si>
-  <si>
-    <t>Ручка переключения кпп SPACO (сереб - черн - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач spaco (сереб - черн)</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач spaco (черн - бел)</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач spaco (черн - бел - кр)</t>
-  </si>
-  <si>
-    <t>Ручка переключения передач spaco (черн-кр)</t>
-  </si>
-  <si>
     <t>Ручка переключения передач mugen (кр)</t>
   </si>
   <si>
@@ -103,18 +85,6 @@
   </si>
   <si>
     <t>Ручка переключения кпп MOMO (кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения кпп spaco (сереб - черн), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения кпп spaco (черн - бел), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения кпп spaco (черн - бел - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
-  </si>
-  <si>
-    <t>Ручка переключения кпп spaco (черн-кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
   </si>
   <si>
     <t>Накладки на педали Ford Focus, Мondeo (мкпп)</t>
@@ -241,6 +211,36 @@
   </si>
   <si>
     <t>Skoda/VW</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач sparco (сереб-черн-кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач sparco (сереб - черн)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач sparco (черн - бел)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач sparco (черн - бел - кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения передач sparco (черн-кр)</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп SPARCO (сереб - черн - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп SPARCO (сереб - черн), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп SPARCO (черн - бел), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп SPARCO (черн - бел - кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Ручка переключения кпп SPARCO (черн-кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,18 +728,18 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -754,11 +754,11 @@
         <v>3300</v>
       </c>
       <c r="F2" s="5">
-        <f>(E2-D2)/D2*100</f>
+        <f t="shared" ref="F2:F11" si="0">(E2-D2)/D2*100</f>
         <v>83.93008427342042</v>
       </c>
       <c r="G2" s="5">
-        <f>E2-D2</f>
+        <f t="shared" ref="G2:G11" si="1">E2-D2</f>
         <v>1505.84</v>
       </c>
       <c r="H2" s="5"/>
@@ -785,11 +785,11 @@
         <v>3300</v>
       </c>
       <c r="F3" s="5">
-        <f>(E3-D3)/D3*100</f>
+        <f t="shared" si="0"/>
         <v>103.41365090519075</v>
       </c>
       <c r="G3" s="5">
-        <f>E3-D3</f>
+        <f t="shared" si="1"/>
         <v>1677.69</v>
       </c>
       <c r="H3" s="5"/>
@@ -801,13 +801,13 @@
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -816,11 +816,11 @@
         <v>2200</v>
       </c>
       <c r="F4" s="5">
-        <f>(E4-D4)/D4*100</f>
+        <f t="shared" si="0"/>
         <v>219900</v>
       </c>
       <c r="G4" s="5">
-        <f>E4-D4</f>
+        <f t="shared" si="1"/>
         <v>2199</v>
       </c>
       <c r="H4" s="5"/>
@@ -832,10 +832,10 @@
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -844,11 +844,11 @@
         <v>2200</v>
       </c>
       <c r="F5" s="5">
-        <f>(E5-D5)/D5*100</f>
+        <f t="shared" si="0"/>
         <v>219900</v>
       </c>
       <c r="G5" s="5">
-        <f>E5-D5</f>
+        <f t="shared" si="1"/>
         <v>2199</v>
       </c>
       <c r="H5" s="5"/>
@@ -860,13 +860,13 @@
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -875,11 +875,11 @@
         <v>2200</v>
       </c>
       <c r="F6" s="7">
-        <f>(E6-D6)/D6*100</f>
+        <f t="shared" si="0"/>
         <v>219900</v>
       </c>
       <c r="G6" s="7">
-        <f>E6-D6</f>
+        <f t="shared" si="1"/>
         <v>2199</v>
       </c>
       <c r="H6" s="7"/>
@@ -889,16 +889,16 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -907,11 +907,11 @@
         <v>2200</v>
       </c>
       <c r="F7" s="12">
-        <f>(E7-D7)/D7*100</f>
+        <f t="shared" si="0"/>
         <v>219900</v>
       </c>
       <c r="G7" s="12">
-        <f>E7-D7</f>
+        <f t="shared" si="1"/>
         <v>2199</v>
       </c>
       <c r="H7" s="12"/>
@@ -921,18 +921,18 @@
         <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6">
         <v>576.41999999999996</v>
@@ -941,11 +941,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="7">
-        <f>(E8-D8)/D8*100</f>
+        <f t="shared" si="0"/>
         <v>-99.826515388085085</v>
       </c>
       <c r="G8" s="7">
-        <f>E8-D8</f>
+        <f t="shared" si="1"/>
         <v>-575.41999999999996</v>
       </c>
       <c r="H8" s="7"/>
@@ -955,18 +955,18 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -975,11 +975,11 @@
         <v>2200</v>
       </c>
       <c r="F9" s="7">
-        <f>(E9-D9)/D9*100</f>
+        <f t="shared" si="0"/>
         <v>219900</v>
       </c>
       <c r="G9" s="7">
-        <f>E9-D9</f>
+        <f t="shared" si="1"/>
         <v>2199</v>
       </c>
       <c r="H9" s="7"/>
@@ -989,18 +989,18 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6">
         <v>1067.5</v>
@@ -1009,11 +1009,11 @@
         <v>2200</v>
       </c>
       <c r="F10" s="7">
-        <f>(E10-D10)/D10*100</f>
+        <f t="shared" si="0"/>
         <v>106.08899297423888</v>
       </c>
       <c r="G10" s="7">
-        <f>E10-D10</f>
+        <f t="shared" si="1"/>
         <v>1132.5</v>
       </c>
       <c r="H10" s="7"/>
@@ -1023,32 +1023,32 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6">
-        <v>1756.85</v>
+        <v>1021.96</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="7">
-        <f>(E11-D11)/D11*100</f>
-        <v>-99.943079944218354</v>
+        <f t="shared" si="0"/>
+        <v>-99.90214881208658</v>
       </c>
       <c r="G11" s="7">
-        <f>E11-D11</f>
-        <v>-1755.85</v>
+        <f t="shared" si="1"/>
+        <v>-1020.96</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1108,24 +1108,24 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4">
         <v>860.67</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4">
         <v>2512.37</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D4" s="16">
         <v>1</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6">
         <v>897.27</v>
@@ -1250,18 +1250,18 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6">
         <v>1614.89</v>
@@ -1284,12 +1284,12 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17">
@@ -1298,7 +1298,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17">
@@ -1307,7 +1307,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K9" s="17">
         <v>0</v>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,21 +1358,21 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -1400,12 +1400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShopMallLocalRep\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Ручки КПП" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>что</t>
   </si>
@@ -246,8 +241,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +304,27 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -367,9 +383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +393,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,10 +498,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,7 +532,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -683,16 +707,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -702,7 +726,7 @@
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -737,8 +761,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:12" ht="30">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -771,7 +795,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -799,8 +823,8 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:12" ht="45">
+      <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -830,7 +854,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -858,8 +882,8 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="30">
+      <c r="A6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -892,8 +916,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
@@ -924,8 +948,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="45">
+      <c r="A8" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -958,8 +982,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="45">
+      <c r="A9" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -992,8 +1016,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="105">
+      <c r="A10" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1026,8 +1050,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="75">
+      <c r="A11" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1067,22 +1091,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1141,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:12" ht="60">
+      <c r="A2" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1153,8 +1177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:12" ht="60">
+      <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1186,41 +1210,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="60">
+      <c r="A4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
         <v>1100</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f>(E4-D4)/D4*100</f>
         <v>109900</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>E4-D4</f>
         <v>1099</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="45">
+      <c r="A5" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1253,63 +1277,60 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="45">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6">
-        <v>1614.89</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="20">
+        <v>1154.98</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2100</v>
+      </c>
+      <c r="F6" s="21">
         <f>(E6-D6)/D6*100</f>
-        <v>-99.938076277641201</v>
-      </c>
-      <c r="G6" s="7">
+        <v>81.821330239484666</v>
+      </c>
+      <c r="G6" s="21">
         <f>E6-D6</f>
-        <v>-1613.89</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+        <v>945.02</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1319,20 +1340,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1400,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -1433,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1466,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -1499,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1605,16 +1626,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>что</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Накладки на пороги Pegeout 308 408 (2008-2015). Нержавеющая сталь - отличное качество исполнения. Крепление - пром. скотч 3М.</t>
-  </si>
-  <si>
-    <t>уточнить цену продажи</t>
   </si>
   <si>
     <t>Накладки на педали Октавия А5, Гольф, Джетта, Aуди</t>
@@ -346,12 +343,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,13 +704,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -762,325 +756,325 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30">
-      <c r="A2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1794.16</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3300</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f t="shared" ref="F2:F11" si="0">(E2-D2)/D2*100</f>
         <v>83.93008427342042</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f t="shared" ref="G2:G11" si="1">E2-D2</f>
         <v>1505.84</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <f>SUM(H:H)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="30">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1622.31</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3300</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>103.41365090519075</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f t="shared" si="1"/>
         <v>1677.69</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="45">
-      <c r="A4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>2200</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="45">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>2200</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="30">
-      <c r="A6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>2200</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="30">
-      <c r="A7" s="17"/>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="30">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
         <v>2200</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="45">
-      <c r="A8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="45">
+      <c r="A8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>576.41999999999996</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>-99.826515388085085</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>-575.41999999999996</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="45">
-      <c r="A9" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="45">
+      <c r="A9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
         <v>2200</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="105">
-      <c r="A10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="105">
+      <c r="A10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1067.5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>2200</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>106.08899297423888</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>1132.5</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
         <v>2</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="75">
-      <c r="A11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="75">
+      <c r="A11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1021.96</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>-99.90214881208658</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>-1020.96</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1094,13 +1088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1142,8 +1136,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="60">
-      <c r="A2" s="17" t="s">
-        <v>60</v>
+      <c r="A2" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1151,35 +1145,35 @@
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>860.67</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1700</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>(E2-D2)/D2*100</f>
         <v>97.52053632635041</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>E2-D2</f>
         <v>839.33</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <f>SUM(H:H)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60">
-      <c r="A3" s="17" t="s">
-        <v>52</v>
+      <c r="A3" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1187,32 +1181,32 @@
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2512.37</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4100</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>(E3-D3)/D3*100</f>
         <v>63.192523394245285</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>E3-D3</f>
         <v>1587.63</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A4" s="17" t="s">
-        <v>61</v>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A4" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -1220,117 +1214,116 @@
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
         <v>1100</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>(E4-D4)/D4*100</f>
         <v>109900</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <f>E4-D4</f>
         <v>1099</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="45">
-      <c r="A5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="45">
+      <c r="A5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>897.27</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F5" s="3">
         <f>(E5-D5)/D5*100</f>
-        <v>-99.888550826395615</v>
-      </c>
-      <c r="G5" s="7">
+        <v>89.463595127442133</v>
+      </c>
+      <c r="G5" s="3">
         <f>E5-D5</f>
-        <v>-896.27</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" ht="45">
-      <c r="A6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="19" t="s">
+        <v>802.73</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>1154.98</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>2100</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f>(E6-D6)/D6*100</f>
         <v>81.821330239484666</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <f>E6-D6</f>
         <v>945.02</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21">
-        <v>1</v>
-      </c>
-      <c r="K6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20">
+        <v>1</v>
+      </c>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16">
+      <c r="A7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16">
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="A9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1390,166 +1383,166 @@
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>1100</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f t="shared" ref="E2:E8" si="0">(D2-C2)/C2*100</f>
         <v>109900</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f t="shared" ref="F2:F8" si="1">D2-C2</f>
         <v>1099</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <f t="shared" ref="H2:H8" si="2">SUM(G:G)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>1100</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>1100</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>1100</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>1100</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1560,29 +1553,29 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>1100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1593,29 +1586,29 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>1300</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>129900</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>1299</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
     </row>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>что</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>Ручка переключения кпп SPARCO (черн-кр), в комплекте переходные гайки под разную резьбу штока - M8/М10/M12</t>
+  </si>
+  <si>
+    <t>Накладки на педали Chevrolet Cruze(МКПП)</t>
+  </si>
+  <si>
+    <t>Накладки на педали Chevrolet Cruze(МКПП). Крепление - оригинал.</t>
   </si>
 </sst>
 </file>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,11 +778,11 @@
         <v>3300</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F11" si="0">(E2-D2)/D2*100</f>
+        <f t="shared" ref="F2:F12" si="0">(E2-D2)/D2*100</f>
         <v>83.93008427342042</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G11" si="1">E2-D2</f>
+        <f t="shared" ref="G2:G12" si="1">E2-D2</f>
         <v>1505.84</v>
       </c>
       <c r="H2" s="4"/>
@@ -902,9 +908,11 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
       <c r="K6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
@@ -934,7 +942,9 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
       <c r="K7" s="11">
         <v>0</v>
       </c>
@@ -956,125 +966,159 @@
         <v>576.41999999999996</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>-99.826515388085085</v>
+        <v>90.833073106415469</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>-575.41999999999996</v>
+        <v>523.58000000000004</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6"/>
       <c r="L8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="45">
       <c r="A9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5">
+        <v>576.41999999999996</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9" si="2">(E9-D9)/D9*100</f>
+        <v>90.833073106415469</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" ref="G9" si="3">E9-D9</f>
+        <v>523.58000000000004</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="45">
+      <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <v>2200</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>2199</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="105">
-      <c r="A10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1067.5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2200</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>106.08899297423888</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>1132.5</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="75">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="105">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5">
-        <v>1021.96</v>
+        <v>1067.5</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>2200</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>-99.90214881208658</v>
+        <v>106.08899297423888</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>-1020.96</v>
+        <v>1132.5</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="75">
+      <c r="A12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1021.96</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2200</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>115.2726134095268</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>1178.04</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ShopMallLocalRep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Ручки КПП" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -241,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +503,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,6 +538,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -707,14 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -726,7 +733,7 @@
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
@@ -795,7 +802,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -823,7 +830,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="45">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
@@ -854,7 +861,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="45">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -882,7 +889,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="30">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>54</v>
       </c>
@@ -893,30 +900,32 @@
         <v>28</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>1221.05</v>
       </c>
       <c r="E6" s="7">
         <v>2200</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
-        <v>219900</v>
+        <v>80.172802096556254</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>2199</v>
+        <v>978.95</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
       <c r="K6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="30">
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>29</v>
@@ -948,7 +957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="45">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>55</v>
       </c>
@@ -982,7 +991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="45">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>56</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="105">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>57</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="75">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>58</v>
       </c>
@@ -1091,14 +1100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
@@ -1106,7 +1115,7 @@
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>60</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="60">
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>61</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="45">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>61</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" ht="45">
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>54</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>53</v>
       </c>
@@ -1340,20 +1349,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1626,16 +1635,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ShopMallLocalRep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Ручки КПП" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>что</t>
   </si>
@@ -122,9 +127,6 @@
   </si>
   <si>
     <t>Накладки на педали Chevrolet Cruze(АКПП). Крепление - оригинал.</t>
-  </si>
-  <si>
-    <t>уточнить тип крепления</t>
   </si>
   <si>
     <t>Накладки на педали BMW E30 E36 E46 E87 E90 E91 E92 E93(МКПП)</t>
@@ -244,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,28 +282,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF92D050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -329,15 +309,33 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -345,67 +343,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +541,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,6 +576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -707,63 +752,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30">
-      <c r="A2" s="16" t="s">
-        <v>51</v>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>10</v>
@@ -771,354 +820,365 @@
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>1794.16</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="9">
         <v>3300</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="9">
         <f t="shared" ref="F2:F12" si="0">(E2-D2)/D2*100</f>
         <v>83.93008427342042</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="9">
         <f t="shared" ref="G2:G12" si="1">E2-D2</f>
         <v>1505.84</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
         <f>SUM(H:H)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="30">
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="8">
         <v>1622.31</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>3300</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
         <f t="shared" si="0"/>
         <v>103.41365090519075</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="9">
         <f t="shared" si="1"/>
         <v>1677.69</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="45">
-      <c r="A4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
         <v>2200</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="16">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="45">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="8">
+        <v>1221.05</v>
+      </c>
+      <c r="E5" s="9">
         <v>2200</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>80.172802096556254</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>978.95</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2200</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" ref="F6" si="2">(E6-D6)/D6*100</f>
+        <v>219900</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" ref="G6" si="3">E6-D6</f>
+        <v>2199</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="30">
-      <c r="A6" s="16" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2200</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>219900</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>2199</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" ht="30">
-      <c r="A7" s="16"/>
-      <c r="B7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2200</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>219900</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="1"/>
-        <v>2199</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="45">
-      <c r="A8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="21">
         <v>576.41999999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="19">
         <v>1100</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>90.833073106415469</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>523.58000000000004</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="2" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="21">
+        <v>576.41999999999996</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" ref="F9" si="4">(E9-D9)/D9*100</f>
+        <v>90.833073106415469</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" ref="G9" si="5">E9-D9</f>
+        <v>523.58000000000004</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="45">
-      <c r="A9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="5">
-        <v>576.41999999999996</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1100</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" ref="F9" si="2">(E9-D9)/D9*100</f>
-        <v>90.833073106415469</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="G9" si="3">E9-D9</f>
-        <v>523.58000000000004</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="45">
-      <c r="A10" s="16" t="s">
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2000.97</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3700</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>84.910318495529665</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>1699.03</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="B11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1067.5</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2100</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="0"/>
+        <v>96.721311475409834</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="1"/>
+        <v>1032.5</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25">
+        <v>3</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1021.96</v>
+      </c>
+      <c r="E12" s="19">
         <v>2200</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>219900</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>2199</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="105">
-      <c r="A11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1067.5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2200</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>106.08899297423888</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>1132.5</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="75">
-      <c r="A12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1021.96</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2200</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>115.2726134095268</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>1178.04</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1129,245 +1189,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="5" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60">
-      <c r="A2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8">
         <v>860.67</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="9">
         <v>1700</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="9">
         <f>(E2-D2)/D2*100</f>
         <v>97.52053632635041</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="9">
         <f>E2-D2</f>
         <v>839.33</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
         <f>SUM(H:H)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60">
-      <c r="A3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8">
         <v>2512.37</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>4100</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
         <f>(E3-D3)/D3*100</f>
         <v>63.192523394245285</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="9">
         <f>E3-D3</f>
         <v>1587.63</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="60">
-      <c r="A4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
         <v>1100</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="25">
         <f>(E4-D4)/D4*100</f>
         <v>109900</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="25">
         <f>E4-D4</f>
         <v>1099</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="45">
-      <c r="A5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25">
+        <v>1</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <v>897.27</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <v>1700</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <f>(E5-D5)/D5*100</f>
         <v>89.463595127442133</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <f>E5-D5</f>
         <v>802.73</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="D6" s="30">
         <v>1154.98</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="31">
         <v>2100</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="31">
         <f>(E6-D6)/D6*100</f>
         <v>81.821330239484666</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="31">
         <f>E6-D6</f>
         <v>945.02</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20">
-        <v>1</v>
-      </c>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="16" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="16" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="15">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1377,20 +1439,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1425,234 +1487,234 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>1100</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E8" si="0">(D2-C2)/C2*100</f>
         <v>109900</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <f t="shared" ref="F2:F8" si="1">D2-C2</f>
         <v>1099</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H8" si="2">SUM(G:G)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>1100</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30">
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>1100</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>1100</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>1100</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>1100</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>109900</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>129900</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>1299</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1663,16 +1725,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ShopMallLocalRep\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Накладки на педали" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Ручки КПП" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -164,9 +159,6 @@
 Прорезиненные накладки из нержавейки оригинального дизайна. Крепление - оригинал.</t>
   </si>
   <si>
-    <t>Накладки на педали Октавия А7, Гольф 7</t>
-  </si>
-  <si>
     <t>Подходят к Skoda Octavia А7; 
 VW Golf 7. Прорезиненные накладки из нержавейки оригинального дизайна. Крепление - оригинал.</t>
   </si>
@@ -241,13 +233,16 @@
   </si>
   <si>
     <t>Накладки на педали Chevrolet Cruze(МКПП). Крепление - оригинал.</t>
+  </si>
+  <si>
+    <t>Накладки на педали Октавия А7, Гольф 7 (МКПП)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +304,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,18 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -394,32 +377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -509,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,10 +498,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +532,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -752,14 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="5" customWidth="1"/>
@@ -775,7 +730,7 @@
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -810,9 +765,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="30">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>10</v>
@@ -846,9 +801,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="30">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -879,42 +834,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
         <v>2200</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>219900</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="9">
         <f t="shared" si="1"/>
         <v>2199</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="45">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>25</v>
@@ -945,42 +900,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="30">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>2200</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <f t="shared" ref="F6" si="2">(E6-D6)/D6*100</f>
         <v>219900</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <f t="shared" ref="G6" si="3">E6-D6</f>
         <v>2199</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="30">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>29</v>
@@ -1011,174 +966,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="14">
         <v>576.41999999999996</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>1100</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>90.833073106415469</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <f t="shared" si="1"/>
         <v>523.58000000000004</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="D9" s="14">
         <v>576.41999999999996</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>1100</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <f t="shared" ref="F9" si="4">(E9-D9)/D9*100</f>
         <v>90.833073106415469</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <f t="shared" ref="G9" si="5">E9-D9</f>
         <v>523.58000000000004</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="14">
         <v>2000.97</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>3700</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>84.910318495529665</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <f t="shared" si="1"/>
         <v>1699.03</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="105">
       <c r="A11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="14">
         <v>1067.5</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="15">
         <v>2100</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>96.721311475409834</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="15">
         <f t="shared" si="1"/>
         <v>1032.5</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
         <v>3</v>
       </c>
-      <c r="K11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="75">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="D12" s="14">
         <v>1021.96</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>2200</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>115.2726134095268</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <f t="shared" si="1"/>
         <v>1178.04</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19">
-        <v>1</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1189,14 +1144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="5" customWidth="1"/>
@@ -1206,7 +1161,7 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1241,14 +1196,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="60">
       <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="8">
@@ -1277,14 +1232,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="60">
       <c r="A3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="8">
@@ -1310,47 +1265,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="60">
       <c r="A4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
         <v>1100</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="15">
         <f>(E4-D4)/D4*100</f>
         <v>109900</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="15">
         <f>E4-D4</f>
         <v>1099</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25">
-        <v>1</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="45">
       <c r="A5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="8">
@@ -1369,67 +1324,67 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="25">
-        <v>1</v>
-      </c>
-      <c r="K5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="29" t="s">
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="45">
+      <c r="A6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="D6" s="20">
         <v>1154.98</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="21">
         <v>2100</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="21">
         <f>(E6-D6)/D6*100</f>
         <v>81.821330239484666</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="21">
         <f>E6-D6</f>
         <v>945.02</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31">
-        <v>1</v>
-      </c>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="33">
+        <v>50</v>
+      </c>
+      <c r="K9" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1439,20 +1394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,12 +1442,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1520,12 +1475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1553,12 +1508,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1586,12 +1541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1619,12 +1574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1652,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1725,16 +1680,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
